--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1940.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1940.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.378792901688996</v>
+        <v>0.5357409715652466</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.6755579113960266</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>0.9819005727767944</v>
       </c>
       <c r="D1">
-        <v>1.561721131793056</v>
+        <v>3.811616659164429</v>
       </c>
       <c r="E1">
-        <v>1.074415334792473</v>
+        <v>5.695967197418213</v>
       </c>
     </row>
   </sheetData>
